--- a/assessment/time/result_tests/result_of_tests_4_t.xlsx
+++ b/assessment/time/result_tests/result_of_tests_4_t.xlsx
@@ -467,2002 +467,2002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05556392669677734</v>
+        <v>0.008296966552734375</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007000923156738281</v>
+        <v>0.008254766464233398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007999658584594727</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009999752044677734</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007997512817382812</v>
+        <v>0.0166778564453125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008002042770385742</v>
+        <v>0.007294416427612305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01507925987243652</v>
+        <v>0.01489782333374023</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01199960708618164</v>
+        <v>0.008449792861938477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0110008716583252</v>
+        <v>0.01860356330871582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01500058174133301</v>
+        <v>0.01605057716369629</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01099920272827148</v>
+        <v>0.008008956909179688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01099729537963867</v>
+        <v>0.01357817649841309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02458524703979492</v>
+        <v>0.01699090003967285</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01700210571289062</v>
+        <v>0.019989013671875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01700282096862793</v>
+        <v>0.01651096343994141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02699899673461914</v>
+        <v>0.01972293853759766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01600551605224609</v>
+        <v>0.0244755744934082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.01629161834716797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01500988006591797</v>
+        <v>0.02747702598571777</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01403427124023438</v>
+        <v>0.01729726791381836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01299262046813965</v>
+        <v>0.01648545265197754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01500248908996582</v>
+        <v>0.01269674301147461</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01400089263916016</v>
+        <v>0.01361560821533203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01400399208068848</v>
+        <v>0.01407575607299805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01003503799438477</v>
+        <v>0.01404547691345215</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009005308151245117</v>
+        <v>0.00799870491027832</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01000213623046875</v>
+        <v>0.00832676887512207</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01300382614135742</v>
+        <v>0.009481430053710938</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009001016616821289</v>
+        <v>0.0110771656036377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01099753379821777</v>
+        <v>0.0159456729888916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01095843315124512</v>
+        <v>0.008140802383422852</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008001804351806641</v>
+        <v>0.009216785430908203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.008008956909179688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01099967956542969</v>
+        <v>0.009370088577270508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007999658584594727</v>
+        <v>0.007310390472412109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008042097091674805</v>
+        <v>0.0008099079132080078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.009001255035400391</v>
+        <v>0.01170253753662109</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00799560546875</v>
+        <v>0.008388996124267578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007997512817382812</v>
+        <v>0.01393818855285645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01199674606323242</v>
+        <v>0.001999139785766602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007996797561645508</v>
+        <v>0.01330685615539551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00896143913269043</v>
+        <v>0.01805949211120605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01703977584838867</v>
+        <v>0.02059412002563477</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01400136947631836</v>
+        <v>0.008411407470703125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01500105857849121</v>
+        <v>0.03266000747680664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01500034332275391</v>
+        <v>0.02716898918151855</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01400327682495117</v>
+        <v>0.01531147956848145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01599550247192383</v>
+        <v>0.01673531532287598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.008963823318481445</v>
+        <v>0.001002311706542969</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007962703704833984</v>
+        <v>0.008291244506835938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007998466491699219</v>
+        <v>0.01722383499145508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007997512817382812</v>
+        <v>0.008080005645751953</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008000850677490234</v>
+        <v>0.008276700973510742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007001399993896484</v>
+        <v>0.005418300628662109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01203441619873047</v>
+        <v>0.01680445671081543</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01099920272827148</v>
+        <v>0.008047580718994141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01000261306762695</v>
+        <v>0.009175539016723633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01900362968444824</v>
+        <v>0.009149551391601562</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.0116429328918457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01099824905395508</v>
+        <v>0.01327013969421387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0110011100769043</v>
+        <v>0.008075237274169922</v>
       </c>
       <c r="B12" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.01705241203308105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.007984638214111328</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.008423566818237305</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009999752044677734</v>
+        <v>0.009832143783569336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01001453399658203</v>
+        <v>0.01192665100097656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01300263404846191</v>
+        <v>0.01631736755371094</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0130012035369873</v>
+        <v>0.01034379005432129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01300191879272461</v>
+        <v>0.01966047286987305</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02300453186035156</v>
+        <v>0.008248329162597656</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01199960708618164</v>
+        <v>0.01155591011047363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01402473449707031</v>
+        <v>0.006918191909790039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.008956432342529297</v>
+        <v>0.008980751037597656</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007036209106445312</v>
+        <v>0.01218008995056152</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008997678756713867</v>
+        <v>0.004004955291748047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.009998321533203125</v>
+        <v>0.008013486862182617</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01699662208557129</v>
+        <v>0.01258635520935059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007965803146362305</v>
+        <v>0.009433507919311523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02201294898986816</v>
+        <v>0.02604365348815918</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0259559154510498</v>
+        <v>0.01845598220825195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02300024032592773</v>
+        <v>0.03165030479431152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03999805450439453</v>
+        <v>0.01640176773071289</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01999974250793457</v>
+        <v>0.02344131469726562</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02199649810791016</v>
+        <v>0.02048635482788086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01402878761291504</v>
+        <v>0.01335883140563965</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01304340362548828</v>
+        <v>0.01625347137451172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01299905776977539</v>
+        <v>0.0134117603302002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0189979076385498</v>
+        <v>0.01761960983276367</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01300668716430664</v>
+        <v>0.009398937225341797</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01400184631347656</v>
+        <v>0.01570963859558105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01076221466064453</v>
+        <v>0.0161900520324707</v>
       </c>
       <c r="B17" t="n">
-        <v>0.007956743240356445</v>
+        <v>0.0137794017791748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01100420951843262</v>
+        <v>0.01796245574951172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01400089263916016</v>
+        <v>0.008471250534057617</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008996486663818359</v>
+        <v>0.01646900177001953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01200151443481445</v>
+        <v>0.007443904876708984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01199889183044434</v>
+        <v>0.01894235610961914</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01099944114685059</v>
+        <v>0.009349584579467773</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01099610328674316</v>
+        <v>0.02445173263549805</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0110013484954834</v>
+        <v>0.008011817932128906</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009997129440307617</v>
+        <v>0.01174330711364746</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.01594400405883789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01500582695007324</v>
+        <v>0.04410815238952637</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01400613784790039</v>
+        <v>0.01500439643859863</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01600050926208496</v>
+        <v>0.028900146484375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0149991512298584</v>
+        <v>0.024688720703125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01499557495117188</v>
+        <v>0.01579999923706055</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01599621772766113</v>
+        <v>0.01503777503967285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02100300788879395</v>
+        <v>0.03393220901489258</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01800036430358887</v>
+        <v>0.02327728271484375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02099728584289551</v>
+        <v>0.02738475799560547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01999759674072266</v>
+        <v>0.02154111862182617</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01900386810302734</v>
+        <v>0.0192408561706543</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02099990844726562</v>
+        <v>0.01708412170410156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05003643035888672</v>
+        <v>0.03988361358642578</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0390322208404541</v>
+        <v>0.04678130149841309</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04599905014038086</v>
+        <v>0.0743257999420166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0400388240814209</v>
+        <v>0.04094862937927246</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03800010681152344</v>
+        <v>0.03833127021789551</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0370032787322998</v>
+        <v>0.04173064231872559</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01099228858947754</v>
+        <v>0.008180141448974609</v>
       </c>
       <c r="B22" t="n">
-        <v>0.007005214691162109</v>
+        <v>0.007975101470947266</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008001565933227539</v>
+        <v>0.01806807518005371</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007967710494995117</v>
+        <v>0.009474992752075195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007005214691162109</v>
+        <v>0.01494526863098145</v>
       </c>
       <c r="F22" t="n">
-        <v>0.008004426956176758</v>
+        <v>0.008129358291625977</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0129704475402832</v>
+        <v>0.009145259857177734</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.01082921028137207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01000809669494629</v>
+        <v>0.01058793067932129</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01000046730041504</v>
+        <v>0.009810447692871094</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01299571990966797</v>
+        <v>0.01065564155578613</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008993148803710938</v>
+        <v>0.00799560546875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0159914493560791</v>
+        <v>0.01812314987182617</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01496219635009766</v>
+        <v>0.01414752006530762</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01600027084350586</v>
+        <v>0.01279544830322266</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01899433135986328</v>
+        <v>0.01230430603027344</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01500034332275391</v>
+        <v>0.01574492454528809</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01404142379760742</v>
+        <v>0.0173490047454834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0110008716583252</v>
+        <v>0.005082130432128906</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.01410555839538574</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.02013492584228516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01300621032714844</v>
+        <v>0.005414009094238281</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01500678062438965</v>
+        <v>0.01168370246887207</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01096367835998535</v>
+        <v>0.008300065994262695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.01104640960693359</v>
+        <v>0.01857709884643555</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01099538803100586</v>
+        <v>0.01387906074523926</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01103854179382324</v>
+        <v>0.01024937629699707</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009998321533203125</v>
+        <v>0.01798105239868164</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01199030876159668</v>
+        <v>0.01164770126342773</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01199674606323242</v>
+        <v>0.0080413818359375</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01095962524414062</v>
+        <v>0.008067607879638672</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01000022888183594</v>
+        <v>0.01174163818359375</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01195526123046875</v>
+        <v>0.016265869140625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01099658012390137</v>
+        <v>0.008162975311279297</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01304340362548828</v>
+        <v>0.01404738426208496</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01800346374511719</v>
+        <v>0.009127616882324219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.008999347686767578</v>
+        <v>0.006817817687988281</v>
       </c>
       <c r="B28" t="n">
-        <v>0.009040594100952148</v>
+        <v>0.001042604446411133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008000612258911133</v>
+        <v>0.01847338676452637</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.007998228073120117</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01095676422119141</v>
+        <v>0.007201671600341797</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01599478721618652</v>
+        <v>0.01639842987060547</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.008035421371459961</v>
+        <v>0.01600885391235352</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0070037841796875</v>
+        <v>0.01723504066467285</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00800776481628418</v>
+        <v>0.01389956474304199</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00699615478515625</v>
+        <v>0.009292364120483398</v>
       </c>
       <c r="E29" t="n">
-        <v>0.009001255035400391</v>
+        <v>0.00967860221862793</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.009085178375244141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.009001255035400391</v>
+        <v>0.02548837661743164</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00899815559387207</v>
+        <v>0.003866910934448242</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01099228858947754</v>
+        <v>0.006158113479614258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01200342178344727</v>
+        <v>0.008127212524414062</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01704144477844238</v>
+        <v>0.007297992706298828</v>
       </c>
       <c r="F30" t="n">
-        <v>0.009998083114624023</v>
+        <v>0.01155638694763184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.01596450805664062</v>
+        <v>0.02972745895385742</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01495647430419922</v>
+        <v>0.02222681045532227</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01700663566589355</v>
+        <v>0.02786660194396973</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01499819755554199</v>
+        <v>0.008000612258911133</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01896572113037109</v>
+        <v>0.02111196517944336</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02400588989257812</v>
+        <v>0.009356498718261719</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0129997730255127</v>
+        <v>0.03041958808898926</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01100730895996094</v>
+        <v>0.01480793952941895</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01199221611022949</v>
+        <v>0.02284026145935059</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01100301742553711</v>
+        <v>0.01888918876647949</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0159904956817627</v>
+        <v>0.008614301681518555</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01799798011779785</v>
+        <v>0.01672577857971191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01399898529052734</v>
+        <v>0.03307747840881348</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0149989128112793</v>
+        <v>0.01504993438720703</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01400089263916016</v>
+        <v>0.0236051082611084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01400399208068848</v>
+        <v>0.009405851364135742</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01900696754455566</v>
+        <v>0.02334451675415039</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03599739074707031</v>
+        <v>0.008047103881835938</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.009039878845214844</v>
+        <v>0.02088427543640137</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01000022888183594</v>
+        <v>0.01260042190551758</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008999347686767578</v>
+        <v>0.02255892753601074</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008994102478027344</v>
+        <v>0.01601791381835938</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01099705696105957</v>
+        <v>0.00800013542175293</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01200103759765625</v>
+        <v>0.009354591369628906</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.007998466491699219</v>
+        <v>0.01086688041687012</v>
       </c>
       <c r="B35" t="n">
-        <v>0.006995201110839844</v>
+        <v>0.005464792251586914</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008053779602050781</v>
+        <v>0.01395392417907715</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.008254766464233398</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01100039482116699</v>
+        <v>0.01286172866821289</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01400327682495117</v>
+        <v>0.008314847946166992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01096367835998535</v>
+        <v>0.008864402770996094</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0110476016998291</v>
+        <v>0.01502585411071777</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01594400405883789</v>
+        <v>0.03423428535461426</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01104402542114258</v>
+        <v>0.009527683258056641</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01300501823425293</v>
+        <v>0.01140213012695312</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01199841499328613</v>
+        <v>0.01651740074157715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.01699662208557129</v>
+        <v>0.0328972339630127</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01599574089050293</v>
+        <v>0.02091574668884277</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01800417900085449</v>
+        <v>0.04199838638305664</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01599574089050293</v>
+        <v>0.01682925224304199</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01999354362487793</v>
+        <v>0.0197746753692627</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02499794960021973</v>
+        <v>0.02690696716308594</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.01299619674682617</v>
+        <v>0.02342820167541504</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01395320892333984</v>
+        <v>0.009770393371582031</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0149991512298584</v>
+        <v>0.0393521785736084</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01395893096923828</v>
+        <v>0.01626467704772949</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01599740982055664</v>
+        <v>0.01224279403686523</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01999855041503906</v>
+        <v>0.02286887168884277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.009006023406982422</v>
+        <v>0.001518726348876953</v>
       </c>
       <c r="B39" t="n">
-        <v>0.009004354476928711</v>
+        <v>0.01584482192993164</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009006261825561523</v>
+        <v>0.01972794532775879</v>
       </c>
       <c r="D39" t="n">
-        <v>0.008999347686767578</v>
+        <v>0.008322954177856445</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02100443840026855</v>
+        <v>0.007455825805664062</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.02057933807373047</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.009038686752319336</v>
+        <v>0.01926016807556152</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007998228073120117</v>
+        <v>0.009320735931396484</v>
       </c>
       <c r="C40" t="n">
-        <v>0.007999181747436523</v>
+        <v>0.0243079662322998</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009012699127197266</v>
+        <v>0.008050441741943359</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008995532989501953</v>
+        <v>0.01562643051147461</v>
       </c>
       <c r="F40" t="n">
-        <v>0.009001255035400391</v>
+        <v>0.009263992309570312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.007998466491699219</v>
+        <v>0.002998113632202148</v>
       </c>
       <c r="B41" t="n">
-        <v>0.007998943328857422</v>
+        <v>0.006719112396240234</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008000612258911133</v>
+        <v>0.01822495460510254</v>
       </c>
       <c r="D41" t="n">
-        <v>0.007032632827758789</v>
+        <v>0.008287429809570312</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01000070571899414</v>
+        <v>0.005527257919311523</v>
       </c>
       <c r="F41" t="n">
-        <v>0.009001731872558594</v>
+        <v>0.007624387741088867</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.01500082015991211</v>
+        <v>0.02055811882019043</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.01548337936401367</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0160365104675293</v>
+        <v>0.03135585784912109</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01496124267578125</v>
+        <v>0.01658892631530762</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01500248908996582</v>
+        <v>0.019500732421875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02000021934509277</v>
+        <v>0.02418708801269531</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.006955385208129883</v>
+        <v>0.007228851318359375</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008037805557250977</v>
+        <v>0.01353573799133301</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006956815719604492</v>
+        <v>0.01056671142578125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008993625640869141</v>
+        <v>0.008002519607543945</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008000373840332031</v>
+        <v>0.0102534294128418</v>
       </c>
       <c r="F43" t="n">
-        <v>0.008001089096069336</v>
+        <v>0.009592533111572266</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01000213623046875</v>
+        <v>0.01015448570251465</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01100778579711914</v>
+        <v>0.009310007095336914</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.0167841911315918</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01301097869873047</v>
+        <v>0.007999181747436523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01000356674194336</v>
+        <v>0.01035523414611816</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01400113105773926</v>
+        <v>0.014739990234375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.01004147529602051</v>
+        <v>0.008305788040161133</v>
       </c>
       <c r="B45" t="n">
-        <v>0.008999347686767578</v>
+        <v>0.01070404052734375</v>
       </c>
       <c r="C45" t="n">
-        <v>0.007955551147460938</v>
+        <v>0.004136323928833008</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0119926929473877</v>
+        <v>0.01627445220947266</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008998394012451172</v>
+        <v>0.006712913513183594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01099777221679688</v>
+        <v>0.01057338714599609</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.01295614242553711</v>
+        <v>0.008216381072998047</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01195406913757324</v>
+        <v>0.01597189903259277</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01199841499328613</v>
+        <v>0.02836132049560547</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.01697230339050293</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01299810409545898</v>
+        <v>0.01628398895263672</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01599788665771484</v>
+        <v>0.01704239845275879</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.007002592086791992</v>
+        <v>0.009320259094238281</v>
       </c>
       <c r="B47" t="n">
-        <v>0.007000923156738281</v>
+        <v>0.005376577377319336</v>
       </c>
       <c r="C47" t="n">
-        <v>0.007998943328857422</v>
+        <v>0.02117109298706055</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008996963500976562</v>
+        <v>0.004677295684814453</v>
       </c>
       <c r="E47" t="n">
-        <v>0.008002519607543945</v>
+        <v>0.006061553955078125</v>
       </c>
       <c r="F47" t="n">
-        <v>0.008001804351806641</v>
+        <v>0.006688833236694336</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.02004003524780273</v>
+        <v>0.02113652229309082</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02004146575927734</v>
+        <v>0.02761197090148926</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02004003524780273</v>
+        <v>0.02913141250610352</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02404236793518066</v>
+        <v>0.02693057060241699</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01999974250793457</v>
+        <v>0.02530169486999512</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0240020751953125</v>
+        <v>0.03339219093322754</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.01196026802062988</v>
+        <v>0.01752829551696777</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01200103759765625</v>
+        <v>0.01354098320007324</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01296114921569824</v>
+        <v>0.03050708770751953</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01295614242553711</v>
+        <v>0.008581399917602539</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01299738883972168</v>
+        <v>0.02030730247497559</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0130002498626709</v>
+        <v>0.01706933975219727</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01000094413757324</v>
+        <v>0.01163172721862793</v>
       </c>
       <c r="B50" t="n">
-        <v>0.008997678756713867</v>
+        <v>0.004701614379882812</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01000332832336426</v>
+        <v>0.03049802780151367</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01000738143920898</v>
+        <v>0.008046388626098633</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009001255035400391</v>
+        <v>0.01331806182861328</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01399707794189453</v>
+        <v>0.01047468185424805</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.008884906768798828</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01095890998840332</v>
+        <v>0.01580572128295898</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01099896430969238</v>
+        <v>0.02734017372131348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01100063323974609</v>
+        <v>0.01627993583679199</v>
       </c>
       <c r="E51" t="n">
-        <v>0.009998559951782227</v>
+        <v>0.009652614593505859</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01600050926208496</v>
+        <v>0.01442790031433105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.01500129699707031</v>
+        <v>0.01518154144287109</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01300311088562012</v>
+        <v>0.02129554748535156</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01500153541564941</v>
+        <v>0.04314231872558594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01403474807739258</v>
+        <v>0.01495790481567383</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01399683952331543</v>
+        <v>0.02152609825134277</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01799774169921875</v>
+        <v>0.01755976676940918</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.02004027366638184</v>
+        <v>0.02956748008728027</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01999688148498535</v>
+        <v>0.01700592041015625</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02099418640136719</v>
+        <v>0.04921245574951172</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0189664363861084</v>
+        <v>0.01639914512634277</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01900792121887207</v>
+        <v>0.02049803733825684</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02000284194946289</v>
+        <v>0.01630210876464844</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01896238327026367</v>
+        <v>0.02662491798400879</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0149996280670166</v>
+        <v>0.01504826545715332</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01600337028503418</v>
+        <v>0.04188394546508789</v>
       </c>
       <c r="D54" t="n">
-        <v>0.016998291015625</v>
+        <v>0.01859903335571289</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01599836349487305</v>
+        <v>0.01636171340942383</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02299952507019043</v>
+        <v>0.02286076545715332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.01399850845336914</v>
+        <v>0.02170062065124512</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01300191879272461</v>
+        <v>0.01591610908508301</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01299715042114258</v>
+        <v>0.04144001007080078</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01300191879272461</v>
+        <v>0.008288860321044922</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01400089263916016</v>
+        <v>0.0149228572845459</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01700353622436523</v>
+        <v>0.01647734642028809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.009996175765991211</v>
+        <v>0.0140993595123291</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01000356674194336</v>
+        <v>0.01598668098449707</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01000165939331055</v>
+        <v>0.01967453956604004</v>
       </c>
       <c r="D56" t="n">
-        <v>0.009993314743041992</v>
+        <v>0.008049488067626953</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008999347686767578</v>
+        <v>0.01362347602844238</v>
       </c>
       <c r="F56" t="n">
-        <v>0.009996891021728516</v>
+        <v>0.008375406265258789</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.01119422912597656</v>
       </c>
       <c r="B57" t="n">
-        <v>0.00803685188293457</v>
+        <v>0.006018638610839844</v>
       </c>
       <c r="C57" t="n">
-        <v>0.006999731063842773</v>
+        <v>0.009427547454833984</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007001399993896484</v>
+        <v>0.008001804351806641</v>
       </c>
       <c r="E57" t="n">
-        <v>0.007000923156738281</v>
+        <v>0.00220489501953125</v>
       </c>
       <c r="F57" t="n">
-        <v>0.008998870849609375</v>
+        <v>0.008008718490600586</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.009006500244140625</v>
+        <v>0.01375746726989746</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007999658584594727</v>
+        <v>0.008477210998535156</v>
       </c>
       <c r="C58" t="n">
-        <v>0.008006095886230469</v>
+        <v>0.01090908050537109</v>
       </c>
       <c r="D58" t="n">
-        <v>0.008001327514648438</v>
+        <v>0.01314735412597656</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00899958610534668</v>
+        <v>0.01463508605957031</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01300406455993652</v>
+        <v>0.00799870491027832</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.009998321533203125</v>
+        <v>0.01357340812683105</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01195740699768066</v>
+        <v>0.01419949531555176</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0110008716583252</v>
+        <v>0.01517510414123535</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01099824905395508</v>
+        <v>0.009232997894287109</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01099896430969238</v>
+        <v>0.01019644737243652</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01699662208557129</v>
+        <v>0.008003950119018555</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.01599979400634766</v>
+        <v>0.01864528656005859</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01500201225280762</v>
+        <v>0.01842832565307617</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01599836349487305</v>
+        <v>0.02591776847839355</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01699709892272949</v>
+        <v>0.01635527610778809</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.01005148887634277</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02599883079528809</v>
+        <v>0.0184476375579834</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.01199960708618164</v>
+        <v>0.01767420768737793</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01200199127197266</v>
+        <v>0.01275730133056641</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01000046730041504</v>
+        <v>0.01073265075683594</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01200747489929199</v>
+        <v>0.01628303527832031</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01199579238891602</v>
+        <v>0.01825666427612305</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01999831199645996</v>
+        <v>0.01782083511352539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.0110785961151123</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007005453109741211</v>
+        <v>0.004614353179931641</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01199650764465332</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006999492645263672</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.006998777389526367</v>
+        <v>0.01034712791442871</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01400256156921387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0379936695098877</v>
+        <v>0.04104232788085938</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03999137878417969</v>
+        <v>0.05017662048339844</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07499432563781738</v>
+        <v>0.05081629753112793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04199504852294922</v>
+        <v>0.04253029823303223</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03999876976013184</v>
+        <v>0.0427391529083252</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07699680328369141</v>
+        <v>0.05064702033996582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.01000356674194336</v>
+        <v>0.0129539966583252</v>
       </c>
       <c r="B64" t="n">
-        <v>0.007999420166015625</v>
+        <v>0.009380817413330078</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0140070915222168</v>
+        <v>0.008010387420654297</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01200413703918457</v>
+        <v>0.008051872253417969</v>
       </c>
       <c r="E64" t="n">
-        <v>0.009002923965454102</v>
+        <v>0.01606893539428711</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0220038890838623</v>
+        <v>0.00947117805480957</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01400160789489746</v>
+        <v>0.01604294776916504</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0140082836151123</v>
+        <v>0.01598811149597168</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0169990062713623</v>
+        <v>0.01668977737426758</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01400256156921387</v>
+        <v>0.01973938941955566</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01400375366210938</v>
+        <v>0.01392674446105957</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02799677848815918</v>
+        <v>0.01337909698486328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.01000070571899414</v>
+        <v>0.01205611228942871</v>
       </c>
       <c r="B66" t="n">
-        <v>0.009994029998779297</v>
+        <v>0.006665229797363281</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01199960708618164</v>
+        <v>0.008012771606445312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008992195129394531</v>
+        <v>0.008241891860961914</v>
       </c>
       <c r="E66" t="n">
-        <v>0.009994983673095703</v>
+        <v>0.01359677314758301</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01500391960144043</v>
+        <v>0.00881195068359375</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.008001089096069336</v>
+        <v>0.004561424255371094</v>
       </c>
       <c r="B67" t="n">
-        <v>0.008999109268188477</v>
+        <v>0.01402950286865234</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01000142097473145</v>
+        <v>0.009930610656738281</v>
       </c>
       <c r="D67" t="n">
-        <v>0.009003162384033203</v>
+        <v>0.009936332702636719</v>
       </c>
       <c r="E67" t="n">
-        <v>0.008001089096069336</v>
+        <v>0.003091096878051758</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02099967002868652</v>
+        <v>0.008528947830200195</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01599645614624023</v>
+        <v>0.02039361000061035</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01404118537902832</v>
+        <v>0.01594281196594238</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02100682258605957</v>
+        <v>0.01475429534912109</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0220038890838623</v>
+        <v>0.02432584762573242</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01500344276428223</v>
+        <v>0.0170130729675293</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02799749374389648</v>
+        <v>0.01752495765686035</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.008001804351806641</v>
+        <v>0.01138210296630859</v>
       </c>
       <c r="B69" t="n">
-        <v>0.008006095886230469</v>
+        <v>0.009365081787109375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01099061965942383</v>
+        <v>0.006064891815185547</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01099348068237305</v>
+        <v>0.01541018486022949</v>
       </c>
       <c r="E69" t="n">
-        <v>0.009000539779663086</v>
+        <v>0.007950067520141602</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01600193977355957</v>
+        <v>0.04234814643859863</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.01399683952331543</v>
+        <v>0.01464724540710449</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01295971870422363</v>
+        <v>0.01600003242492676</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02199935913085938</v>
+        <v>0.02203822135925293</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01400136947631836</v>
+        <v>0.02092480659484863</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01300048828125</v>
+        <v>0.01585221290588379</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02799844741821289</v>
+        <v>0.07330822944641113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.01200056076049805</v>
+        <v>0.01455426216125488</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01199936866760254</v>
+        <v>0.01122045516967773</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01899981498718262</v>
+        <v>0.0147864818572998</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01100349426269531</v>
+        <v>0.008027315139770508</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01099562644958496</v>
+        <v>0.01569032669067383</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01799941062927246</v>
+        <v>0.03493356704711914</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.01200532913208008</v>
+        <v>0.01309680938720703</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0110020637512207</v>
+        <v>0.01549792289733887</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02000188827514648</v>
+        <v>0.006822109222412109</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01099276542663574</v>
+        <v>0.007999897003173828</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.006592512130737305</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01400065422058105</v>
+        <v>0.03495550155639648</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.009033441543579102</v>
+        <v>0.005562305450439453</v>
       </c>
       <c r="B73" t="n">
-        <v>0.007998943328857422</v>
+        <v>0.00437164306640625</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01599884033203125</v>
+        <v>0.01566910743713379</v>
       </c>
       <c r="D73" t="n">
-        <v>0.009007692337036133</v>
+        <v>0.008388280868530273</v>
       </c>
       <c r="E73" t="n">
-        <v>0.008003473281860352</v>
+        <v>0.01561164855957031</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01100373268127441</v>
+        <v>0.02331995964050293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.01096630096435547</v>
+        <v>0.01467752456665039</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01099848747253418</v>
+        <v>0.01606225967407227</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02000164985656738</v>
+        <v>0.009733200073242188</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01099705696105957</v>
+        <v>0.00800776481628418</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01099419593811035</v>
+        <v>0.01276302337646484</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01699590682983398</v>
+        <v>0.02607440948486328</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01099371910095215</v>
+        <v>0.008601903915405273</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01000142097473145</v>
+        <v>0.0124812126159668</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01399731636047363</v>
+        <v>0.01609516143798828</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01000213623046875</v>
+        <v>0.01644754409790039</v>
       </c>
       <c r="E75" t="n">
-        <v>0.009005546569824219</v>
+        <v>0.008083820343017578</v>
       </c>
       <c r="F75" t="n">
-        <v>0.009999513626098633</v>
+        <v>0.0180821418762207</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.008005142211914062</v>
+        <v>0.006343841552734375</v>
       </c>
       <c r="B76" t="n">
-        <v>0.007999181747436523</v>
+        <v>0.008377313613891602</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02199888229370117</v>
+        <v>0.009367704391479492</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01100254058837891</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.009001016616821289</v>
+        <v>0.007941722869873047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.009002447128295898</v>
+        <v>0.01104545593261719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01999545097351074</v>
+        <v>0.02495980262756348</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01999926567077637</v>
+        <v>0.02211952209472656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03100109100341797</v>
+        <v>0.01570224761962891</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01799798011779785</v>
+        <v>0.02527976036071777</v>
       </c>
       <c r="E77" t="n">
-        <v>0.01900172233581543</v>
+        <v>0.01590847969055176</v>
       </c>
       <c r="F77" t="n">
-        <v>0.02099800109863281</v>
+        <v>0.0149080753326416</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.009998083114624023</v>
+        <v>0.008357524871826172</v>
       </c>
       <c r="B78" t="n">
-        <v>0.009038209915161133</v>
+        <v>0.009546995162963867</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01199865341186523</v>
+        <v>0.009238719940185547</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.008001089096069336</v>
       </c>
       <c r="E78" t="n">
-        <v>0.008996963500976562</v>
+        <v>0.01609039306640625</v>
       </c>
       <c r="F78" t="n">
-        <v>0.01200032234191895</v>
+        <v>0.01503634452819824</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.04700398445129395</v>
+        <v>0.04343724250793457</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04395389556884766</v>
+        <v>0.04836630821228027</v>
       </c>
       <c r="C79" t="n">
-        <v>0.05699706077575684</v>
+        <v>0.04996395111083984</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04399800300598145</v>
+        <v>0.04271769523620605</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04499721527099609</v>
+        <v>0.04410600662231445</v>
       </c>
       <c r="F79" t="n">
-        <v>0.06299781799316406</v>
+        <v>0.04861235618591309</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.009003162384033203</v>
+        <v>0.008046627044677734</v>
       </c>
       <c r="B80" t="n">
-        <v>0.009006977081298828</v>
+        <v>0.0129854679107666</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01100468635559082</v>
+        <v>0.01604795455932617</v>
       </c>
       <c r="D80" t="n">
-        <v>0.009002208709716797</v>
+        <v>0.00919795036315918</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01000213623046875</v>
+        <v>0.006537675857543945</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01200437545776367</v>
+        <v>0.006608963012695312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.02299904823303223</v>
+        <v>0.01770853996276855</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01799869537353516</v>
+        <v>0.01796603202819824</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02199816703796387</v>
+        <v>0.01740431785583496</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01999831199645996</v>
+        <v>0.0228888988494873</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01800131797790527</v>
+        <v>0.0376741886138916</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0339963436126709</v>
+        <v>0.02859711647033691</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.02699422836303711</v>
+        <v>0.03527998924255371</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02700090408325195</v>
+        <v>0.03333091735839844</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0319983959197998</v>
+        <v>0.03268814086914062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0269932746887207</v>
+        <v>0.02928733825683594</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0249931812286377</v>
+        <v>0.0323948860168457</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05100250244140625</v>
+        <v>0.03180217742919922</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.01000404357910156</v>
+        <v>0.008414030075073242</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01000261306762695</v>
+        <v>0.009892463684082031</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01200723648071289</v>
+        <v>0.01013040542602539</v>
       </c>
       <c r="D83" t="n">
-        <v>0.009050130844116211</v>
+        <v>0.007995128631591797</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008998870849609375</v>
+        <v>0.01516151428222656</v>
       </c>
       <c r="F83" t="n">
-        <v>0.02000260353088379</v>
+        <v>0.009629487991333008</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.01099514961242676</v>
+        <v>0.0162665843963623</v>
       </c>
       <c r="B84" t="n">
-        <v>0.009998083114624023</v>
+        <v>0.009411334991455078</v>
       </c>
       <c r="C84" t="n">
-        <v>0.009997367858886719</v>
+        <v>0.009280204772949219</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01095223426818848</v>
+        <v>0.01772403717041016</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01001095771789551</v>
+        <v>0.01756763458251953</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02599525451660156</v>
+        <v>0.00855255126953125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.01200032234191895</v>
+        <v>0.008012056350708008</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01200103759765625</v>
+        <v>0.01383113861083984</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01199722290039062</v>
+        <v>0.0129086971282959</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01200056076049805</v>
+        <v>0.008315563201904297</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01299405097961426</v>
+        <v>0.01916670799255371</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01800441741943359</v>
+        <v>0.01605677604675293</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.01504635810852051</v>
+        <v>0.01720857620239258</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01500105857849121</v>
+        <v>0.01722025871276855</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0149996280670166</v>
+        <v>0.008306264877319336</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.01847434043884277</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01500105857849121</v>
+        <v>0.026336669921875</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0189976692199707</v>
+        <v>0.01923608779907227</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.01295971870422363</v>
+        <v>0.008085250854492188</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01099944114685059</v>
+        <v>0.01490926742553711</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01204371452331543</v>
+        <v>0.01816630363464355</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01400589942932129</v>
+        <v>0.008364677429199219</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01299905776977539</v>
+        <v>0.02454733848571777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0149991512298584</v>
+        <v>0.01243376731872559</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.008000850677490234</v>
+        <v>0.008233308792114258</v>
       </c>
       <c r="B88" t="n">
-        <v>0.008002519607543945</v>
+        <v>0.001001358032226562</v>
       </c>
       <c r="C88" t="n">
-        <v>0.007956981658935547</v>
+        <v>0.008390903472900391</v>
       </c>
       <c r="D88" t="n">
-        <v>0.009032011032104492</v>
+        <v>0.008013486862182617</v>
       </c>
       <c r="E88" t="n">
-        <v>0.008000373840332031</v>
+        <v>0.02563810348510742</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.006685018539428711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01099872589111328</v>
+        <v>0.01810479164123535</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01099967956542969</v>
+        <v>0.01622772216796875</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01099896430969238</v>
+        <v>0.008229970932006836</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01000642776489258</v>
+        <v>0.009130477905273438</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01000380516052246</v>
+        <v>0.02961564064025879</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01200413703918457</v>
+        <v>0.01397967338562012</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.01503825187683105</v>
+        <v>0.02464675903320312</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01499342918395996</v>
+        <v>0.02250862121582031</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01500558853149414</v>
+        <v>0.01601028442382812</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01499819755554199</v>
+        <v>0.02561855316162109</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0149986743927002</v>
+        <v>0.02690792083740234</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02099776268005371</v>
+        <v>0.01634645462036133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0219566822052002</v>
+        <v>0.02557897567749023</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02100253105163574</v>
+        <v>0.02527117729187012</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01999926567077637</v>
+        <v>0.02030515670776367</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02195978164672852</v>
+        <v>0.02429628372192383</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01999664306640625</v>
+        <v>0.02948760986328125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02999591827392578</v>
+        <v>0.02718567848205566</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.01600050926208496</v>
+        <v>0.01601052284240723</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01499652862548828</v>
+        <v>0.01968121528625488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01900219917297363</v>
+        <v>0.01303482055664062</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01504063606262207</v>
+        <v>0.01626014709472656</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01600337028503418</v>
+        <v>0.02428770065307617</v>
       </c>
       <c r="F92" t="n">
-        <v>0.02300524711608887</v>
+        <v>0.01942753791809082</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.01404428482055664</v>
+        <v>0.01890158653259277</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01399850845336914</v>
+        <v>0.01733660697937012</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01500105857849121</v>
+        <v>0.01840114593505859</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01396346092224121</v>
+        <v>0.01630640029907227</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01399970054626465</v>
+        <v>0.01500582695007324</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02199816703796387</v>
+        <v>0.01476526260375977</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.008956670761108398</v>
+        <v>0.008287191390991211</v>
       </c>
       <c r="B94" t="n">
-        <v>0.008000373840332031</v>
+        <v>0.007428884506225586</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01699399948120117</v>
+        <v>0.01478767395019531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00800013542175293</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.008000612258911133</v>
+        <v>0.009196758270263672</v>
       </c>
       <c r="F94" t="n">
-        <v>0.008997440338134766</v>
+        <v>0.005888700485229492</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.0449974536895752</v>
+        <v>0.06033515930175781</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03799772262573242</v>
+        <v>0.04839825630187988</v>
       </c>
       <c r="C95" t="n">
-        <v>0.05399560928344727</v>
+        <v>0.03344964981079102</v>
       </c>
       <c r="D95" t="n">
-        <v>0.04104423522949219</v>
+        <v>0.0427098274230957</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03899788856506348</v>
+        <v>0.04590845108032227</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0579991340637207</v>
+        <v>0.04727768898010254</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.02300024032592773</v>
+        <v>0.03005337715148926</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02300190925598145</v>
+        <v>0.02214908599853516</v>
       </c>
       <c r="C96" t="n">
-        <v>0.03000140190124512</v>
+        <v>0.02953362464904785</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02194809913635254</v>
+        <v>0.02790594100952148</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0240015983581543</v>
+        <v>0.02491641044616699</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02900195121765137</v>
+        <v>0.0391085147857666</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.008999109268188477</v>
+        <v>0.01226544380187988</v>
       </c>
       <c r="B97" t="n">
-        <v>0.007999181747436523</v>
+        <v>0.009678363800048828</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01000380516052246</v>
+        <v>0.008313417434692383</v>
       </c>
       <c r="D97" t="n">
-        <v>0.009007453918457031</v>
+        <v>0.008009672164916992</v>
       </c>
       <c r="E97" t="n">
-        <v>0.008000612258911133</v>
+        <v>0.009943962097167969</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01199913024902344</v>
+        <v>0.009203195571899414</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.0129997730255127</v>
+        <v>0.01290392875671387</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01100254058837891</v>
+        <v>0.008058786392211914</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01700067520141602</v>
+        <v>0.01600885391235352</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.02039957046508789</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01199579238891602</v>
+        <v>0.01215410232543945</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01600384712219238</v>
+        <v>0.01373076438903809</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.001997947692871094</v>
       </c>
       <c r="B99" t="n">
-        <v>0.00799870491027832</v>
+        <v>0.009337186813354492</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01100254058837891</v>
+        <v>0.007997989654541016</v>
       </c>
       <c r="D99" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.009577512741088867</v>
       </c>
       <c r="E99" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.0113215446472168</v>
       </c>
       <c r="F99" t="n">
-        <v>0.007999420166015625</v>
+        <v>0.007984399795532227</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.02100181579589844</v>
+        <v>0.02490973472595215</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02000260353088379</v>
+        <v>0.01689672470092773</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03099560737609863</v>
+        <v>0.02485466003417969</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02099919319152832</v>
+        <v>0.01463794708251953</v>
       </c>
       <c r="E100" t="n">
-        <v>0.02199792861938477</v>
+        <v>0.02054214477539062</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02899885177612305</v>
+        <v>0.01668977737426758</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.01700210571289062</v>
+        <v>0.01732373237609863</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01700019836425781</v>
+        <v>0.02467775344848633</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02399826049804688</v>
+        <v>0.01666522026062012</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01799559593200684</v>
+        <v>0.01743459701538086</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01700019836425781</v>
+        <v>0.02380108833312988</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01999926567077637</v>
+        <v>0.02702593803405762</v>
       </c>
     </row>
   </sheetData>
